--- a/src/test/resources/TestCases.xlsx
+++ b/src/test/resources/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\PIT QA\Egzaminas\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A2DE84-A024-4BDE-BA60-E034B56902B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF023092-71B9-4F6C-BBEC-B835D292C3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47880" yWindow="2490" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,9 +740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -30666,6 +30666,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010022A3DFED626231409DAA367F57F40A9C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407edd1c3a15847219f29416bc7f8162">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="badfe3fc-62a2-4548-9489-5c1b0779c7f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07d92e5421639b79fa3c2113007a2127" ns2:_="">
     <xsd:import namespace="badfe3fc-62a2-4548-9489-5c1b0779c7f6"/>
@@ -30811,15 +30820,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -30827,6 +30827,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3814BC6B-9F20-453B-96DD-8EA0BD5DCE5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CF6F5C9-EDDC-48DE-B4DA-BAD0988F67CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30844,14 +30852,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3814BC6B-9F20-453B-96DD-8EA0BD5DCE5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F97F149-2F4E-43BB-AF66-8C886A715F98}">
   <ds:schemaRefs>
